--- a/Income/JNJ_inc.xlsx
+++ b/Income/JNJ_inc.xlsx
@@ -2812,10 +2812,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>29218000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>27699000000.0</v>
@@ -2942,7 +2940,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>17589000000.0</v>
+        <v>17715000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>16809000000.0</v>
@@ -3196,7 +3194,7 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>5.7066</v>
+        <v>5.7428</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>5.5887</v>
@@ -3323,7 +3321,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>5.7066</v>
+        <v>5.7428</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>5.5887</v>
